--- a/Run-Env/iManager/src/main/webapp/template/LogsStatsAdapter.xlsx
+++ b/Run-Env/iManager/src/main/webapp/template/LogsStatsAdapter.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\업무\작업\2021\2021.09.06\통계\후\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ESB_workspace\workspace\Git\iGate_v5\Custom\iManager\src\main\webapp\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="9825"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="24075" windowHeight="9825"/>
   </bookViews>
   <sheets>
     <sheet name="어댑터별 통계" sheetId="1" r:id="rId1"/>
@@ -61,15 +61,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>평균 처리 시간</t>
+    <t>어댑터별 통계</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>최대 처리 시간</t>
+    <t>평균 처리 시간 (ms)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>어댑터별 통계</t>
+    <t>최대 처리 시간 (ms)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1153,7 +1153,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1167,7 +1169,7 @@
     <row r="1" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -1242,10 +1244,10 @@
         <v>5</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
